--- a/medicine/Psychotrope/Gansbräu/Gansbräu.xlsx
+++ b/medicine/Psychotrope/Gansbräu/Gansbräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gansbr%C3%A4u</t>
+          <t>Gansbräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gansbräu est une brasserie à Neumarkt in der Oberpfalz.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gansbr%C3%A4u</t>
+          <t>Gansbräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses origines remontent à 1580. Elle est depuis 1866 la propriété de la famille Ehrnsperger et est gérée aujourd'hui par les familles Ötzinger et Zinnhobel.
 La brasserie a son siège sur la Ringstrasse, contre l'enceinte.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gansbr%C3%A4u</t>
+          <t>Gansbräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produit de la Helles, de la Dunkel, de la pils, de la Festbier et du panaché. Tous les trois ans, elle produit une bière à l'occasion de la Neumarkter Jura-Volksfest. Produite pour le jubilé des 850 ans de la ville, la bière rousse « Anno 1160 » reçoit en 2010 et 2012 la médaille d'argent de l'European Beer Star.
 </t>
